--- a/input/historical_capacity.xlsx
+++ b/input/historical_capacity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/energy/Documents/research/prep-shot-data/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/energy/Downloads/PREP-SHOT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054CDC8-5838-7141-9E7F-F4919FD8BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF4A5E-5E81-7A4E-81F4-CA0B85E29D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
   </sheetPr>
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="4" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="6" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="13" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="18" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="24" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="28" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="33" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="37" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="38" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="39" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="42" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="43" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="44" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="45" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="46" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="56" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="57" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="58" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="59" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="60" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="61" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="62" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="69" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="70" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="71" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="72" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="73" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="74" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="75" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="76" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="77" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="78" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="79" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="80" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="81" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="82" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="83" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="84" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="85" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="86" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="87" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="88" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="89" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="90" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="91" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="92" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="93" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="94" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="95" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="96" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="97" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="98" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="99" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="100" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="101" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="102" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="103" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
